--- a/biology/Zoologie/Carbinea_wunderlichi/Carbinea_wunderlichi.xlsx
+++ b/biology/Zoologie/Carbinea_wunderlichi/Carbinea_wunderlichi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carbinea wunderlichi est une espèce d'araignées aranéomorphes de la famille des Stiphidiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carbinea wunderlichi est une espèce d'araignées aranéomorphes de la famille des Stiphidiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre dans les monts Lamb sur le  Lambs Head et le mont Williams[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre dans les monts Lamb sur le  Lambs Head et le mont Williams.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 1,7 mm de long sur 1,5 mm de large, son abdomen 2,0 mm de long. La carapace du mâle paratype mesure 1,4 mm de long sur 1,1 mm de large, son abdomen 1,4 mm de long[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 1,7 mm de long sur 1,5 mm de large, son abdomen 2,0 mm de long. La carapace du mâle paratype mesure 1,4 mm de long sur 1,1 mm de large, son abdomen 1,4 mm de long.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jörg Wunderlich[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jörg Wunderlich.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Davies, 1999 : Carbinea, a new spider genus from north Queensland, Australia (Araneae, Amaurobioidea, Kababininae). Journal of Arachnology, vol. 27, p. 25-36 (texte intégral).</t>
         </is>
